--- a/data/99. analyzes/excel/2017_hco_recipients_aggregated.xlsx
+++ b/data/99. analyzes/excel/2017_hco_recipients_aggregated.xlsx
@@ -1673,7 +1673,7 @@
     <t>Kinderärzte Schweiz</t>
   </si>
   <si>
-    <t>Badenerstr. 21</t>
+    <t>Badenerstrasse 21</t>
   </si>
   <si>
     <t>Schweizerische Morbus Crohn / Colitisulcerosa Vereinigung</t>
@@ -2435,13 +2435,13 @@
     <t>c/o PonteNet,Rosenweg 2</t>
   </si>
   <si>
-    <t>Centre Médical de la Côte SA</t>
-  </si>
-  <si>
-    <t>Corcelles NE</t>
-  </si>
-  <si>
-    <t>Rue du Petit-Berne 14</t>
+    <t>Centre médical de la Côte SA</t>
+  </si>
+  <si>
+    <t>Corcelles</t>
+  </si>
+  <si>
+    <t>Rue du Petit-Beme 14</t>
   </si>
   <si>
     <t>Osteoporoseplattform SGR</t>
@@ -3524,7 +3524,7 @@
     <t>Klinik Meissenberg AG</t>
   </si>
   <si>
-    <t>Meisenbergstrasse 17</t>
+    <t>Meissenbergstrasse 17</t>
   </si>
   <si>
     <t>Vereinigung Allgemeiner und Spezialisierter Intemistinnen und InternistenZürich VZI</t>
@@ -5999,7 +5999,7 @@
     <t>Société Neuchâteloise de Pédiatrie</t>
   </si>
   <si>
-    <t>Lo Locle</t>
+    <t>Le Locle</t>
   </si>
   <si>
     <t>Côte 2</t>
@@ -7566,7 +7566,7 @@
     <t>Dorfstrasse 48</t>
   </si>
   <si>
-    <t>Biomedical Research &amp; Training c/o Universitätsspit al Basel</t>
+    <t>Biomedical Research &amp; Training c/o Universitätsspital  Basel</t>
   </si>
   <si>
     <t>Clinica Holistica Engiadina SA</t>
@@ -7575,7 +7575,7 @@
     <t>Susch</t>
   </si>
   <si>
-    <t>Platz 40</t>
+    <t>Sot Plaz 40</t>
   </si>
   <si>
     <t>Clinica Sant'Anna</t>
@@ -9542,7 +9542,7 @@
         <v>13610.5</v>
       </c>
       <c r="L7" t="n">
-        <v>2469333.070000001</v>
+        <v>2469333.07</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -9618,7 +9618,7 @@
         <v>37676.67000000001</v>
       </c>
       <c r="L9" t="n">
-        <v>2207790.850000001</v>
+        <v>2207790.85</v>
       </c>
     </row>
     <row r="10" spans="1:12">
